--- a/examples/sources/data/unsolved/to_schedule/2019-02-01.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-02-01.xlsx
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <v>43497</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -916,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>43497</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1121,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>43497</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <v>1</v>
